--- a/Hockey_Log.xlsx
+++ b/Hockey_Log.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="280">
   <si>
     <t>Date</t>
   </si>
@@ -573,6 +573,288 @@
   </si>
   <si>
     <t>defense</t>
+  </si>
+  <si>
+    <t>Aaltonen Juhamatti</t>
+  </si>
+  <si>
+    <t>Karlsson Henrik</t>
+  </si>
+  <si>
+    <t>Vaananen Ossi</t>
+  </si>
+  <si>
+    <t>Jaakola Topi</t>
+  </si>
+  <si>
+    <t>Hagman Niklas</t>
+  </si>
+  <si>
+    <t>Moses Steve</t>
+  </si>
+  <si>
+    <t>Gunderson Ryan</t>
+  </si>
+  <si>
+    <t>Maki Tomi</t>
+  </si>
+  <si>
+    <t>Ben-Amor Semir</t>
+  </si>
+  <si>
+    <t>Wirtanen Petteri</t>
+  </si>
+  <si>
+    <t>Rita Jani</t>
+  </si>
+  <si>
+    <t>Helenius Riku</t>
+  </si>
+  <si>
+    <t>Kapanen Niko</t>
+  </si>
+  <si>
+    <t>Koukal Petr</t>
+  </si>
+  <si>
+    <t>Lajunen Ville</t>
+  </si>
+  <si>
+    <t>Ohtamaa Atte</t>
+  </si>
+  <si>
+    <t>Saari Santeri</t>
+  </si>
+  <si>
+    <t>Huhtala Tommi</t>
+  </si>
+  <si>
+    <t>Omark Linus</t>
+  </si>
+  <si>
+    <t>Sallinen Jere</t>
+  </si>
+  <si>
+    <t>Peltola Niko</t>
+  </si>
+  <si>
+    <t>Linglet Charles</t>
+  </si>
+  <si>
+    <t>Shinkevich Ilya</t>
+  </si>
+  <si>
+    <t>Хельсинки</t>
+  </si>
+  <si>
+    <t>Йокерит</t>
+  </si>
+  <si>
+    <t>Динамо Мн</t>
+  </si>
+  <si>
+    <t>Хартвалл Арена</t>
+  </si>
+  <si>
+    <t>Автомобилист</t>
+  </si>
+  <si>
+    <t>Нефтехимик</t>
+  </si>
+  <si>
+    <t>Yekaterinburg</t>
+  </si>
+  <si>
+    <t>Uralets</t>
+  </si>
+  <si>
+    <t>Ellison Matt</t>
+  </si>
+  <si>
+    <t>Drozd Sergei</t>
+  </si>
+  <si>
+    <t>Lisovets Evgeny</t>
+  </si>
+  <si>
+    <t>Vesce Ryan</t>
+  </si>
+  <si>
+    <t>Kalyuzhny Alexei</t>
+  </si>
+  <si>
+    <t>Cheechoo Jonathan</t>
+  </si>
+  <si>
+    <t>Meleshko Dmitry</t>
+  </si>
+  <si>
+    <t>Krajicek Lukas</t>
+  </si>
+  <si>
+    <t>Materukhin Alexander</t>
+  </si>
+  <si>
+    <t>Taylor Danny</t>
+  </si>
+  <si>
+    <t>Szczechura Paul</t>
+  </si>
+  <si>
+    <t>Milchakov Dmitry</t>
+  </si>
+  <si>
+    <t>Bailen Nick</t>
+  </si>
+  <si>
+    <t>Stepanov Andrei</t>
+  </si>
+  <si>
+    <t>Razvadovsky Pavel</t>
+  </si>
+  <si>
+    <t>Kaznadei Ilya</t>
+  </si>
+  <si>
+    <t>Kitarov Alexander</t>
+  </si>
+  <si>
+    <t>Badun Alexei</t>
+  </si>
+  <si>
+    <t>Goroshko Oleg</t>
+  </si>
+  <si>
+    <t>Gusev Sergei</t>
+  </si>
+  <si>
+    <t>Zhuravlyov Yegor</t>
+  </si>
+  <si>
+    <t>Brule Gilbert</t>
+  </si>
+  <si>
+    <t>Tryamkin Nikita</t>
+  </si>
+  <si>
+    <t>Lazarev Anton</t>
+  </si>
+  <si>
+    <t>Lewandowski Eduard</t>
+  </si>
+  <si>
+    <t>Rybakov Alexander</t>
+  </si>
+  <si>
+    <t>Klimenko Gleb</t>
+  </si>
+  <si>
+    <t>Simakov Alexei</t>
+  </si>
+  <si>
+    <t>Palushaj Aaron</t>
+  </si>
+  <si>
+    <t>Lepisto Sami</t>
+  </si>
+  <si>
+    <t>Megalinsky Dmitry</t>
+  </si>
+  <si>
+    <t>Kovar Jakub</t>
+  </si>
+  <si>
+    <t>Nesterov Alexander</t>
+  </si>
+  <si>
+    <t>Loginov Alexander</t>
+  </si>
+  <si>
+    <t>Metlyuk Filipp</t>
+  </si>
+  <si>
+    <t>Mikhnov Alexei</t>
+  </si>
+  <si>
+    <t>Gareyev Artyom</t>
+  </si>
+  <si>
+    <t>Ustinsky Igor</t>
+  </si>
+  <si>
+    <t>Yemelin Sergei</t>
+  </si>
+  <si>
+    <t>Antonov Andrei</t>
+  </si>
+  <si>
+    <t>Bumagin Alexander</t>
+  </si>
+  <si>
+    <t>Alshevsky Stanislav</t>
+  </si>
+  <si>
+    <t>Alshevsky Yaroslav</t>
+  </si>
+  <si>
+    <t>Anderson Matt</t>
+  </si>
+  <si>
+    <t>Berezin Maxim</t>
+  </si>
+  <si>
+    <t>Bilalov Ilshat</t>
+  </si>
+  <si>
+    <t>Grigorenko Evgeny</t>
+  </si>
+  <si>
+    <t>Ivanov Andrei</t>
+  </si>
+  <si>
+    <t>Kalashnikov Stanislav</t>
+  </si>
+  <si>
+    <t>Kolppanen Ville</t>
+  </si>
+  <si>
+    <t>Milovzorov Yegor</t>
+  </si>
+  <si>
+    <t>Nikulin Alexander</t>
+  </si>
+  <si>
+    <t>Polygalov Igor</t>
+  </si>
+  <si>
+    <t>Pujacs Georgijs</t>
+  </si>
+  <si>
+    <t>Rybin Maxim</t>
+  </si>
+  <si>
+    <t>Sexton Dan</t>
+  </si>
+  <si>
+    <t>Sudnitsin Alexander</t>
+  </si>
+  <si>
+    <t>Yevseyenkov Alexander</t>
+  </si>
+  <si>
+    <t>Zdunov Pavel</t>
+  </si>
+  <si>
+    <t>Zhukov Mikhail</t>
+  </si>
+  <si>
+    <t>Kosmachyov Dmitry</t>
+  </si>
+  <si>
+    <t>Eronen Teemu</t>
+  </si>
+  <si>
+    <t>Timiryov Alexander</t>
   </si>
 </sst>
 </file>
@@ -993,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1030,10 +1312,10 @@
         <v>42007</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="D2">
         <v>5500</v>
@@ -1043,6 +1325,20 @@
       </c>
       <c r="F2" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,7 +1365,10 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1083,7 +1382,10 @@
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -1097,7 +1399,10 @@
       <c r="B7" s="2">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1111,7 +1416,10 @@
       <c r="B8" s="2">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1125,7 +1433,10 @@
       <c r="B9" s="2">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1139,7 +1450,10 @@
       <c r="B10" s="2">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1153,7 +1467,10 @@
       <c r="B11" s="2">
         <v>12</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1167,7 +1484,10 @@
       <c r="B12" s="2">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1181,7 +1501,10 @@
       <c r="B13" s="2">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1195,7 +1518,10 @@
       <c r="B14" s="2">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1209,7 +1535,10 @@
       <c r="B15" s="2">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1223,7 +1552,10 @@
       <c r="B16" s="2">
         <v>20</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -1237,7 +1569,10 @@
       <c r="B17" s="2">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -1251,7 +1586,10 @@
       <c r="B18" s="2">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1265,7 +1603,10 @@
       <c r="B19" s="2">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1279,7 +1620,10 @@
       <c r="B20" s="2">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1293,7 +1637,10 @@
       <c r="B21" s="2">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -1307,7 +1654,10 @@
       <c r="B22" s="2">
         <v>60</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1321,7 +1671,10 @@
       <c r="B23" s="2">
         <v>61</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -1335,7 +1688,10 @@
       <c r="B24" s="2">
         <v>82</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1349,7 +1705,10 @@
       <c r="B25" s="2">
         <v>85</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -1363,7 +1722,10 @@
       <c r="B26" s="2">
         <v>87</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -1397,7 +1759,10 @@
       <c r="B29" s="2">
         <v>4</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -1411,7 +1776,10 @@
       <c r="B30" s="2">
         <v>5</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -1425,7 +1793,10 @@
       <c r="B31" s="2">
         <v>8</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1439,7 +1810,10 @@
       <c r="B32" s="2">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -1453,7 +1827,10 @@
       <c r="B33" s="2">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -1467,7 +1844,10 @@
       <c r="B34" s="2">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1481,7 +1861,10 @@
       <c r="B35" s="2">
         <v>28</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1495,7 +1878,10 @@
       <c r="B36" s="2">
         <v>31</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1509,7 +1895,10 @@
       <c r="B37" s="2">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1523,7 +1912,10 @@
       <c r="B38" s="2">
         <v>38</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -1537,7 +1929,10 @@
       <c r="B39" s="2">
         <v>39</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -1551,7 +1946,10 @@
       <c r="B40" s="2">
         <v>42</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -1565,7 +1963,10 @@
       <c r="B41" s="2">
         <v>53</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -1579,7 +1980,10 @@
       <c r="B42" s="2">
         <v>60</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -1593,7 +1997,10 @@
       <c r="B43" s="2">
         <v>63</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -1607,7 +2014,10 @@
       <c r="B44" s="2">
         <v>70</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -1621,7 +2031,10 @@
       <c r="B45" s="2">
         <v>71</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -1635,7 +2048,10 @@
       <c r="B46" s="2">
         <v>77</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -1649,7 +2065,10 @@
       <c r="B47" s="2">
         <v>85</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -1663,7 +2082,10 @@
       <c r="B48" s="2">
         <v>86</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -1677,7 +2099,10 @@
       <c r="B49" s="2">
         <v>88</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -1691,7 +2116,10 @@
       <c r="B50" s="2">
         <v>95</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C50" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -3283,7 +3711,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3291,8 +3719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J107"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3343,6 +3771,20 @@
         <v>112</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" t="s">
+        <v>211</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
@@ -3367,7 +3809,10 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -3381,7 +3826,10 @@
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3395,7 +3843,10 @@
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -3409,7 +3860,10 @@
       <c r="B8" s="2">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3423,7 +3877,10 @@
       <c r="B9" s="2">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -3437,7 +3894,10 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -3451,7 +3911,10 @@
       <c r="B11" s="2">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -3465,7 +3928,10 @@
       <c r="B12" s="2">
         <v>18</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -3479,7 +3945,10 @@
       <c r="B13" s="2">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -3493,7 +3962,10 @@
       <c r="B14" s="2">
         <v>28</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -3507,7 +3979,10 @@
       <c r="B15" s="2">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -3521,7 +3996,10 @@
       <c r="B16" s="2">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -3535,7 +4013,10 @@
       <c r="B17" s="2">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -3549,7 +4030,10 @@
       <c r="B18" s="2">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -3563,7 +4047,10 @@
       <c r="B19" s="2">
         <v>50</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -3577,7 +4064,10 @@
       <c r="B20" s="2">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -3591,7 +4081,10 @@
       <c r="B21" s="2">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -3605,7 +4098,10 @@
       <c r="B22" s="2">
         <v>61</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -3619,7 +4115,10 @@
       <c r="B23" s="2">
         <v>67</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -3633,7 +4132,10 @@
       <c r="B24" s="2">
         <v>76</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -3647,7 +4149,10 @@
       <c r="B25" s="2">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -3681,7 +4186,10 @@
       <c r="B28" s="2">
         <v>7</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -3695,7 +4203,10 @@
       <c r="B29" s="2">
         <v>8</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -3709,7 +4220,10 @@
       <c r="B30" s="2">
         <v>10</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3723,7 +4237,10 @@
       <c r="B31" s="2">
         <v>13</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -3737,7 +4254,10 @@
       <c r="B32" s="2">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -3751,7 +4271,10 @@
       <c r="B33" s="2">
         <v>16</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -3765,7 +4288,10 @@
       <c r="B34" s="2">
         <v>17</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -3779,7 +4305,10 @@
       <c r="B35" s="2">
         <v>18</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -3793,7 +4322,10 @@
       <c r="B36" s="2">
         <v>19</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -3807,7 +4339,10 @@
       <c r="B37" s="2">
         <v>25</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -3821,7 +4356,10 @@
       <c r="B38" s="2">
         <v>28</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -3835,7 +4373,10 @@
       <c r="B39" s="2">
         <v>31</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -3849,7 +4390,10 @@
       <c r="B40" s="2">
         <v>38</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -3863,7 +4407,10 @@
       <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -3877,7 +4424,10 @@
       <c r="B42" s="2">
         <v>55</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -3891,7 +4441,10 @@
       <c r="B43" s="2">
         <v>61</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -3905,7 +4458,10 @@
       <c r="B44" s="2">
         <v>67</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -3919,7 +4475,10 @@
       <c r="B45" s="2">
         <v>70</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -3933,7 +4492,10 @@
       <c r="B46" s="2">
         <v>77</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -3947,7 +4509,10 @@
       <c r="B47" s="2">
         <v>88</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -3961,7 +4526,10 @@
       <c r="B48" s="2">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>185</v>
       </c>
       <c r="E48" s="2" t="s">
